--- a/UnitedAirlines/UnitedAirlinesExcelData/UnitedAirlinesSearch.xlsx
+++ b/UnitedAirlines/UnitedAirlinesExcelData/UnitedAirlinesSearch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Baggage</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Search_Topics</t>
+  </si>
+  <si>
+    <t>Book a flight</t>
   </si>
 </sst>
 </file>
@@ -370,9 +373,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -404,6 +409,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
